--- a/report/reliability/comb/Centro de Educação - CEDU-Presencial.xlsx
+++ b/report/reliability/comb/Centro de Educação - CEDU-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7870804103189764</v>
+        <v>0.7727149601424038</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8037214675036555</v>
+        <v>0.7971873283574505</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8962044313357123</v>
+        <v>0.8969600686401054</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2544176071673112</v>
+        <v>0.2321621696892815</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.094800675762257</v>
+        <v>3.9306583849083485</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.015467299456745548</v>
+        <v>0.015417798994106714</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5107398568019095</v>
+        <v>1.918854415274463</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7800663209784195</v>
+        <v>0.6793843219898767</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.21790170036053824</v>
+        <v>0.18094053337731</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.764506050489206</v>
+        <v>0.7758088984931257</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7755315038040461</v>
+        <v>0.7994492415283881</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8766915793822226</v>
+        <v>0.8988537275595141</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.23901596392140484</v>
+        <v>0.249355799537169</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.454968144514282</v>
+        <v>3.986268850943042</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.017088023540482233</v>
+        <v>0.015612445660339218</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.044193809976223374</v>
+        <v>0.05914015681238945</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.19688013758368114</v>
+        <v>0.20849156162276322</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7670156499346974</v>
+        <v>0.7544864558416177</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.779780266049217</v>
+        <v>0.7764598865278249</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8780141780553852</v>
+        <v>0.8836214536509108</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.24351411964169184</v>
+        <v>0.22447906189018133</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.540919117736699</v>
+        <v>3.473470038407556</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.016848725355884116</v>
+        <v>0.01657777777920798</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.043664419427641606</v>
+        <v>0.060774651646227244</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2229509101690561</v>
+        <v>0.1503245094163352</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7695400173513246</v>
+        <v>0.7599997166525677</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7803879274991941</v>
+        <v>0.782001932565216</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.877549520748171</v>
+        <v>0.8864643491036042</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.24416722478379652</v>
+        <v>0.23013738224712016</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.5534837343531263</v>
+        <v>3.587196628700201</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.016746488788325273</v>
+        <v>0.016164840599513</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.0434169127803356</v>
+        <v>0.0606452262247266</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.20767841311362328</v>
+        <v>0.1503245094163352</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7751328794337344</v>
+        <v>0.7569286297130081</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7889685959737034</v>
+        <v>0.7710674660080996</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8812348007053364</v>
+        <v>0.876916074199686</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.25366203726071296</v>
+        <v>0.21916172538853135</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.7386312222771823</v>
+        <v>3.368099118823278</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.016311413791029027</v>
+        <v>0.016759675036929954</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.043045929192884504</v>
+        <v>0.049237171280992996</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2347273843223207</v>
+        <v>0.16848267345042733</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7574548064712426</v>
+        <v>0.7322720678079335</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7844624013377335</v>
+        <v>0.7695669955733501</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8615345808519671</v>
+        <v>0.8760165899045954</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2486113872525782</v>
+        <v>0.21771388491171134</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.6395617572363106</v>
+        <v>3.339656129069455</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.017952050708145675</v>
+        <v>0.018555809019348578</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.0425452380613165</v>
+        <v>0.049033005801534746</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.21285249055202038</v>
+        <v>0.16233327567413497</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7554339367021353</v>
+        <v>0.7297254250148117</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7821417025854678</v>
+        <v>0.7674557396354331</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8597351266258799</v>
+        <v>0.8748155688186984</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.24606615870890558</v>
+        <v>0.2156994303150484</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.5901396084870685</v>
+        <v>3.3002566411756162</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.018173239413449026</v>
+        <v>0.018850929919972382</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.04235404563040473</v>
+        <v>0.04874946234305918</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2093047101319032</v>
+        <v>0.16233327567413497</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7913473037607123</v>
+        <v>0.7719345734757074</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8116666103607392</v>
+        <v>0.7995035447913994</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8845445741677529</v>
+        <v>0.8934649554114912</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.28150281567328356</v>
+        <v>0.24941920771208403</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.309732925825995</v>
+        <v>3.9876193519709857</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.015022128457313707</v>
+        <v>0.015738557286862114</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04093559434827921</v>
+        <v>0.05433571128328373</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2499660844187967</v>
+        <v>0.20849156162276322</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8005823950044297</v>
+        <v>0.7722139494856566</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8130145442908303</v>
+        <v>0.7946707117400728</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8852425629065183</v>
+        <v>0.8852740732502941</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2832946855379101</v>
+        <v>0.24386709169493645</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.348009534791645</v>
+        <v>3.870225813738254</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.014238813125471051</v>
+        <v>0.01494436688528322</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04006418900678559</v>
+        <v>0.05454553426254604</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2499660844187967</v>
+        <v>0.20849156162276322</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7697825067608322</v>
+        <v>0.7809622445221713</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7908662897727059</v>
+        <v>0.7963542487348736</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8946765162350698</v>
+        <v>0.8919404313517693</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.25583307921714915</v>
+        <v>0.24578051496182912</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.7816298908156094</v>
+        <v>3.9104879124048124</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.016916231718930988</v>
+        <v>0.014136164744998302</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.050946853155929936</v>
+        <v>0.05568877644143527</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.21285249055202038</v>
+        <v>0.20849156162276322</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7784100757080629</v>
+        <v>0.7504509431511679</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7967743887658031</v>
+        <v>0.7813665664124068</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8988128138786099</v>
+        <v>0.8940200421993765</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.26276619099645</v>
+        <v>0.22947840312024922</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.9206396473700402</v>
+        <v>3.5738658703329573</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.01621582138703597</v>
+        <v>0.01700653060379981</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.0510160703222019</v>
+        <v>0.06479487569114206</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.2229509101690561</v>
+        <v>0.16233327567413497</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7649049591221622</v>
+        <v>0.764876016699568</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7827719729512833</v>
+        <v>0.7940570454685218</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8709403551159989</v>
+        <v>0.8996406283722135</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.24675372483121524</v>
+        <v>0.24317502689384068</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.6034575445264023</v>
+        <v>3.8557135750286196</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.017146881184845603</v>
+        <v>0.015924677215503166</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04454354222803905</v>
+        <v>0.06367531968754093</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.20767841311362328</v>
+        <v>0.16848267345042733</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7656232198833409</v>
+        <v>0.7472984112414769</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.783748009913221</v>
+        <v>0.7769022012852839</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8727185739676437</v>
+        <v>0.8737628860184965</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2478238981826364</v>
+        <v>0.22492332231541579</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.6242349011387733</v>
+        <v>3.482339161395041</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.017103442668527532</v>
+        <v>0.01708096224582445</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.0455277713773579</v>
+        <v>0.058367515448136065</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.20767841311362328</v>
+        <v>0.15460694214574516</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7476229241330226</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7768962683217862</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8748839179371523</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.22491735497254214</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.4822199632335873</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.017073134774846895</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05965701183633296</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.16233327567413497</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>419.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6257944778687184</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6880937726587696</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6662469370674939</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5492373699234889</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.4343675417661097</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0591875411677554</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>419.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5878460169636469</v>
+        <v>0.2426448957262092</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6514504259363528</v>
+        <v>0.3779010616796633</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6278776321846637</v>
+        <v>0.3039655229998962</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.49445045196035686</v>
+        <v>0.22547674412129345</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.9140811455847255</v>
+        <v>0.9737470167064439</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.1949924638318656</v>
+        <v>0.1600778607186979</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>419.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.575968379626023</v>
+        <v>0.5472727418517412</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6461300325003493</v>
+        <v>0.6119348031920633</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6236302109025913</v>
+        <v>0.5783193326176718</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5001750163588501</v>
+        <v>0.4547481479323837</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4749403341288785</v>
+        <v>3.4343675417661097</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.9714671899843844</v>
+        <v>1.0591875411677554</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>419.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5042063529958413</v>
+        <v>0.49301905594395434</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5687823977604434</v>
+        <v>0.5587028278984488</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5381889616610859</v>
+        <v>0.5189442228816238</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.39757016231621856</v>
+        <v>0.38027118975558716</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.883054892601432</v>
+        <v>3.9140811455847255</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2171714894700076</v>
+        <v>1.1949924638318656</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>419.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6804809803079013</v>
+        <v>0.7003562773064467</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6099265312520802</v>
+        <v>0.6619588929268478</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6278431725221504</v>
+        <v>0.6853355025863012</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5534002817086691</v>
+        <v>0.6710720905812695</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.2625298329355608</v>
+        <v>0.3556085918854415</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.8124514303851003</v>
+        <v>0.4792695793462886</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>419.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7002980716482332</v>
+        <v>0.7261875186635374</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6306607382945251</v>
+        <v>0.67557979164402</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6502533377473229</v>
+        <v>0.7007692115087532</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5699249789516309</v>
+        <v>0.6039626094172352</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.3389021479713603</v>
+        <v>1.2625298329355608</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.9205984258476785</v>
+        <v>1.8124514303851003</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>419.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.37550738152306307</v>
+        <v>0.7452023500204232</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3419829359737554</v>
+        <v>0.6945312455305375</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.2931718466437657</v>
+        <v>0.7214194752430327</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.23246107494634405</v>
+        <v>0.6205796579941073</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.4272076372315037</v>
+        <v>1.3389021479713603</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.4414654233908926</v>
+        <v>1.9205984258476785</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>419.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.3713922368850399</v>
+        <v>0.3268979670978744</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.327385818218399</v>
+        <v>0.37730453440874817</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.2773755790554923</v>
+        <v>0.33231632871717826</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.19616445826265091</v>
+        <v>0.289521786752042</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.5298329355608593</v>
+        <v>0.8448687350835322</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7378264818771783</v>
+        <v>0.3624625629255508</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>419.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5749434076702912</v>
+        <v>0.4177015051352317</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5510964286420753</v>
+        <v>0.42953736747724797</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4712493365501335</v>
+        <v>0.40387093264690654</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.4493299504847598</v>
+        <v>0.2697168281502212</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.6587112171837708</v>
+        <v>2.4272076372315037</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5297650506482616</v>
+        <v>1.4414654233908926</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>419.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4877384905970895</v>
+        <v>0.4213416477143954</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.49461718812836936</v>
+        <v>0.41153638951131294</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.40021007392059627</v>
+        <v>0.37057028869113656</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.3621528490228466</v>
+        <v>0.24037048571748582</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2052505966587113</v>
+        <v>2.5298329355608593</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3906286216552814</v>
+        <v>1.7378264818771783</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>419.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6066110341351788</v>
+        <v>0.5986935712395083</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6250596152162928</v>
+        <v>0.5649023285254476</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6134759571944881</v>
+        <v>0.49119858672839956</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5099658788926906</v>
+        <v>0.4691266406191353</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.035799522673031</v>
+        <v>1.6587112171837708</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2664827223568744</v>
+        <v>1.5297650506482616</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>419.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6011044388140425</v>
+        <v>0.47112854091299405</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6163416571001801</v>
+        <v>0.4360481293411164</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6020180718275931</v>
+        <v>0.34593842210692466</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5078689357543539</v>
+        <v>0.33505906780115313</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.2052505966587113</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3906286216552814</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>419.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.612080304081957</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6077553190893277</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.596741694599822</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5098535723792421</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.035799522673031</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2664827223568744</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>419.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6102034762508064</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.6078114582663943</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5948524531418435</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5122082328117468</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.964200477326969</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2163784658373733</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.026252983293556086</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.06443914081145585</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.002386634844868735</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.3460620525059666</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.477326968973747</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.08353221957040573</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.026252983293556086</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.00954653937947494</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.050119331742243436</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.28878281622911695</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.18854415274463007</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.43675417661097854</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.00954653937947494</v>
+        <v>0.026252983293556086</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06443914081145585</v>
+        <v>0.9737470167064439</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.00954653937947494</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.360381861575179</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4701670644391408</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08591885441527446</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.00954653937947494</v>
+        <v>0.026252983293556086</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.03341288782816229</v>
+        <v>0.06443914081145585</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05250596658711217</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.35083532219570407</v>
+        <v>0.3460620525059666</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.07637231503579953</v>
+        <v>0.477326968973747</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.477326968973747</v>
+        <v>0.08353221957040573</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.6443914081145584</v>
+        <v>0.026252983293556086</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.031026252983293555</v>
+        <v>0.00954653937947494</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.002386634844868735</v>
+        <v>0.050119331742243436</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.11694510739856802</v>
+        <v>0.28878281622911695</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.15035799522673032</v>
+        <v>0.18854415274463007</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.05489260143198091</v>
+        <v>0.43675417661097854</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.6443914081145584</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.016706443914081145</v>
+        <v>0.3556085918854415</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.016706443914081145</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.11694510739856802</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.0883054892601432</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.11694510739856802</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.15513126491646778</v>
+        <v>0.6443914081145584</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.16945107398568018</v>
+        <v>0.031026252983293555</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.031026252983293555</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.39856801909307876</v>
+        <v>0.11694510739856802</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.22911694510739858</v>
+        <v>0.15035799522673032</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.016706443914081145</v>
+        <v>0.05489260143198091</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.15513126491646778</v>
+        <v>0.6443914081145584</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.19331742243436753</v>
+        <v>0.016706443914081145</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.1718377088305489</v>
+        <v>0.016706443914081145</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.0954653937947494</v>
+        <v>0.11694510739856802</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.21479713603818615</v>
+        <v>0.0883054892601432</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.16945107398568018</v>
+        <v>0.11694510739856802</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.37708830548926014</v>
+        <v>0.15513126491646778</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.1360381861575179</v>
+        <v>0.8448687350835322</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.06682577565632458</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2911694510739857</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.1288782816229117</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2052505966587112</v>
+        <v>0.15513126491646778</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.11694510739856802</v>
+        <v>0.16945107398568018</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.0954653937947494</v>
+        <v>0.031026252983293555</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.431980906921241</v>
+        <v>0.39856801909307876</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.15035799522673032</v>
+        <v>0.22911694510739858</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.016706443914081145</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.18138424821002386</v>
+        <v>0.15513126491646778</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.1026252983293556</v>
+        <v>0.19331742243436753</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.35083532219570407</v>
+        <v>0.1718377088305489</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.22911694510739858</v>
+        <v>0.0954653937947494</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.1360381861575179</v>
+        <v>0.21479713603818615</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.16945107398568018</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.18615751789976134</v>
+        <v>0.37708830548926014</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.0883054892601432</v>
+        <v>0.1360381861575179</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.4105011933174224</v>
+        <v>0.06682577565632458</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.2052505966587112</v>
+        <v>0.2911694510739857</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.10978520286396182</v>
+        <v>0.1288782816229117</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.2052505966587112</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.11694510739856802</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.0954653937947494</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.431980906921241</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.15035799522673032</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.18138424821002386</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.1026252983293556</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.35083532219570407</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.22911694510739858</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.1360381861575179</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.18615751789976134</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.0883054892601432</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.4105011933174224</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.2052505966587112</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.10978520286396182</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8627984630434083</v>
+        <v>0.8696615515799921</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8665594774554812</v>
+        <v>0.9795475048080886</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8605083295991292</v>
+        <v>0.9696948488063262</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6188289157896104</v>
+        <v>0.9410537117771819</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.493975450121439</v>
+        <v>47.89378976094206</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.010981603617681673</v>
+        <v>0.0023530258812615805</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6766109785202863</v>
+        <v>0.9856801909307876</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9386769009498377</v>
+        <v>1.3800841658057208</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.651842706585938</v>
+        <v>0.9395499811772005</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8309314858803887</v>
+        <v>0.970772731103059</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8353700164723782</v>
+        <v>0.9716113040399015</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7793895487633817</v>
+        <v>0.9447899494196693</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.62844743479562</v>
+        <v>0.9447899494196694</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>5.074227662376089</v>
+        <v>34.22528831213443</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.013961107528767908</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.0048121180640539616</v>
-      </c>
+        <v>0.0028119968718854516</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6444067801086708</v>
+        <v>0.9447899494196694</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8167138137200125</v>
+        <v>0.6124850386568759</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8252231589825197</v>
+        <v>0.9688329667142117</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7787118367764663</v>
+        <v>0.9395499811772006</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6114785724849305</v>
+        <v>0.9395499811772003</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.721581842184598</v>
+        <v>31.085184073518754</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.01574014560736122</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.011887955121929604</v>
-      </c>
+        <v>0.006788307862848748</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6592786330632051</v>
+        <v>0.9395499811772005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8195174229661639</v>
+        <v>0.6339350308689919</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8208078912945017</v>
+        <v>0.9684453650930147</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7706864222501572</v>
+        <v>0.9388212047346756</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6042531124654226</v>
+        <v>0.9388212047346758</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.580602891634573</v>
+        <v>30.691065447207137</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.015263571874651327</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.010708776005850138</v>
-      </c>
+        <v>0.006873901042186696</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6444067801086708</v>
+        <v>0.9388212047346757</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.833164533786307</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8369500752425846</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7815750283805694</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6311365434124682</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.133090840046649</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.013961904871813608</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.004764088491386161</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6592786330632051</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>419.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9625827487777272</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9788836825288932</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9619838596609951</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9524227855020535</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.3556085918854415</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4792695793462886</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>419.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.82739395455002</v>
+        <v>0.9847133638383514</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8365206401189892</v>
+        <v>0.9806657040536457</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7734956631709005</v>
+        <v>0.9664949940649857</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6966032376463187</v>
+        <v>0.9528486685023916</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.4343675417661097</v>
+        <v>1.2625298329355608</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0591875411677554</v>
+        <v>1.8124514303851003</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>419.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8623994197503431</v>
+        <v>0.9862398604644844</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8515807408959238</v>
+        <v>0.9809135481716285</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7899778903367327</v>
+        <v>0.9670857141918918</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7321484860946108</v>
+        <v>0.9533904670305384</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.9140811455847255</v>
+        <v>1.3389021479713603</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.1949924638318656</v>
+        <v>1.9205984258476785</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>419.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8437260389096289</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8579934369306458</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.802854416859195</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7368212022195144</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4749403341288785</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.9714671899843844</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>419.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8446872711414734</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8341340189048877</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7692935881127041</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6971633279946586</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.883054892601432</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2171714894700076</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.6443914081145584</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.3556085918854415</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.6443914081145584</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.031026252983293555</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.002386634844868735</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.11694510739856802</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.15035799522673032</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.05489260143198091</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.026252983293556086</v>
+        <v>0.6443914081145584</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.06443914081145585</v>
+        <v>0.016706443914081145</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.002386634844868735</v>
+        <v>0.016706443914081145</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.3460620525059666</v>
+        <v>0.11694510739856802</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.477326968973747</v>
+        <v>0.0883054892601432</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.08353221957040573</v>
+        <v>0.11694510739856802</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.026252983293556086</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.00954653937947494</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.050119331742243436</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.28878281622911695</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.18854415274463007</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.43675417661097854</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.00954653937947494</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06443914081145585</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.00954653937947494</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.360381861575179</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4701670644391408</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08591885441527446</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.00954653937947494</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.03341288782816229</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05250596658711217</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.35083532219570407</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.07637231503579953</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.477326968973747</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8435409394408426</v>
+        <v>0.7522086079918134</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8520290049563615</v>
+        <v>0.8731090753823157</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7422042966547011</v>
+        <v>0.8282563922580504</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7422042966547013</v>
+        <v>0.696380375832359</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>5.7580812016915</v>
+        <v>6.880784248463385</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.014718495725033446</v>
+        <v>0.010900849296228636</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.4785202863961815</v>
+        <v>1.933969769291965</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4846154292184903</v>
+        <v>1.0795767862275614</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7422042966547012</v>
+        <v>0.7223981389734921</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.7422042966547012</v>
+        <v>0.8435409394408426</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.7422042966547012</v>
+        <v>0.8520290049563615</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.5508672179726994</v>
+        <v>0.7422042966547011</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.7422042966547012</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7422042966547012</v>
-      </c>
+        <v>0.7422042966547013</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>5.7580812016915</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.014718495725033446</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.7422042966547012</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5508672179726994</v>
+        <v>0.39956737697645206</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7422042966547012</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5508672179726994</v>
-      </c>
+        <v>0.7688812768754789</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.6245386918688839</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.6245386918688838</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>3.326780567497444</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.018914872856404627</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7422042966547012</v>
+        <v>0.6245386918688837</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.5093482607573381</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8388282855484552</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.7223981389734919</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.7223981389734921</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>5.204562651721641</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.016683832818382663</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.7223981389734921</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>419.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9198637072356922</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9333285318296826</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8040744724922563</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7422042966547013</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.4272076372315037</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.4414654233908926</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>419.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9455944810148812</v>
+        <v>0.7685463450797627</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9333285318296826</v>
+        <v>0.8759738365547796</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.8040744724922565</v>
+        <v>0.77355533916062</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7422042966547012</v>
+        <v>0.7162298650157424</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8448687350835322</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.3624625629255508</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>419.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9241676998399022</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.919891504001234</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8716334219637893</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7818949330676986</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.4272076372315037</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.4414654233908926</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>419.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9368054365390646</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8833663132944244</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7931422588832189</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7529024883679882</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.5298329355608593</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7378264818771783</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.15513126491646778</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.8448687350835322</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.15513126491646778</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.16945107398568018</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.031026252983293555</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.39856801909307876</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.22911694510739858</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.016706443914081145</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.15513126491646778</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.19331742243436753</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.1718377088305489</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.0954653937947494</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.21479713603818615</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.16945107398568018</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9021073131858526</v>
+        <v>0.6758908300772686</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9025106610618421</v>
+        <v>0.808359769292304</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8223411645483848</v>
+        <v>0.7467561146518065</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8223411645483849</v>
+        <v>0.5843787950747016</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.257531858271662</v>
+        <v>4.21811102140278</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.009540750394917688</v>
+        <v>0.013587194206108263</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.0</v>
+        <v>2.77406523468576</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1850342695870417</v>
+        <v>0.7217115157381336</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8223411645483849</v>
+        <v>0.5384554664003672</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8223411645483848</v>
+        <v>0.8071890449595756</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8223411645483848</v>
+        <v>0.8106861183833025</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6762449909107935</v>
+        <v>0.6816418532686207</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8223411645483848</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8223411645483848</v>
-      </c>
+        <v>0.6816418532686206</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>4.282232826564156</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.01858671286078552</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8223411645483848</v>
+        <v>0.6816418532686207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6762449909107935</v>
+        <v>0.248252325645401</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8223411645483848</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6762449909107935</v>
-      </c>
+        <v>0.6999948690880593</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5384554664003671</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5384554664003671</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.333276324175689</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.0164559076332541</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8223411645483848</v>
+        <v>0.5384554664003672</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.27217001814008257</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.6954018035569134</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5330390655551167</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5330390655551167</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.283013529552686</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.018005537412936645</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5330390655551166</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>419.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9564114999286365</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.954552556056602</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8656171658011347</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8223411645483848</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.035799522673031</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2664827223568744</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>419.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.95265571661803</v>
+        <v>0.6318851750474674</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.954552556056602</v>
+        <v>0.8121152351333342</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8656171658011347</v>
+        <v>0.6409984795776267</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8223411645483848</v>
+        <v>0.5842400060322329</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.964200477326969</v>
+        <v>0.9737470167064439</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2163784658373733</v>
+        <v>0.1600778607186979</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>419.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9048269885445157</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8682504768371262</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7794704490944185</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.6985224805343205</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.4343675417661097</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0591875411677554</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>419.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9251959995203866</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.870373939669473</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.783754057988957</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.701241139238086</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.9140811455847255</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.1949924638318656</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.18138424821002386</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.1026252983293556</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.35083532219570407</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.22911694510739858</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.1360381861575179</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.026252983293556086</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9737470167064439</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.18615751789976134</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.0883054892601432</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4105011933174224</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.2052505966587112</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.10978520286396182</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.026252983293556086</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.06443914081145585</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.002386634844868735</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.3460620525059666</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.477326968973747</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.08353221957040573</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.026252983293556086</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.00954653937947494</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.050119331742243436</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.28878281622911695</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.18854415274463007</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.43675417661097854</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.970772731103059</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9716113040399015</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9447899494196693</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9447899494196694</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>34.22528831213443</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0028119968718854516</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>1.3007159904534606</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.8406038282689816</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9447899494196694</v>
+      <c r="A6" t="n" s="491">
+        <v>0.583931746812455</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5858104385717746</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.4142375637252975</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.4142375637252973</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.4143534582372363</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.04043056680792353</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.931980906921241</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2284617679944525</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.4142375637252972</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9447899494196694</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9447899494196694</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.8926280485244213</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9447899494196694</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9447899494196694</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9447899494196694</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.41423756372529724</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.41423756372529724</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.1715927592010702</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.41423756372529724</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.41423756372529724</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.41423756372529724</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.8926280485244213</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9447899494196694</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.8926280485244213</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9447899494196694</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.1715927592010702</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.41423756372529724</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.1715927592010702</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.41423756372529724</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>419.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.985278163690525</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9861008947921276</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9584930875974252</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9447899494196697</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>1.2625298329355608</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.8124514303851003</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8570945054184719</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8409035508681412</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5412163721315014</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.41423756372529735</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.6587112171837708</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5297650506482616</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>419.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9869001317093613</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9861008947921276</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9584930875974252</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9447899494196694</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.3389021479713603</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.9205984258476785</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8239225762038794</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8409035508681413</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5412163721315011</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.41423756372529724</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.2052505966587113</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3906286216552814</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.6443914081145584</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.031026252983293555</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.002386634844868735</v>
-      </c>
-      <c r="E23" t="n" s="571">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.37708830548926014</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.1360381861575179</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.06682577565632458</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.2911694510739857</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.1288782816229117</v>
+      </c>
+      <c r="G23" t="n" s="574">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.2052505966587112</v>
+      </c>
+      <c r="C24" t="n" s="570">
         <v>0.11694510739856802</v>
       </c>
-      <c r="F23" t="n" s="572">
+      <c r="D24" t="n" s="571">
+        <v>0.0954653937947494</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.431980906921241</v>
+      </c>
+      <c r="F24" t="n" s="573">
         <v>0.15035799522673032</v>
       </c>
-      <c r="G23" t="n" s="573">
-        <v>0.05489260143198091</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.6443914081145584</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.016706443914081145</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.016706443914081145</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.11694510739856802</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.0883054892601432</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.11694510739856802</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.583931746812455</v>
+        <v>0.9021073131858526</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5858104385717746</v>
+        <v>0.9025106610618421</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.4142375637252975</v>
+        <v>0.8223411645483848</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.4142375637252973</v>
+        <v>0.8223411645483849</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.4143534582372363</v>
+        <v>9.257531858271662</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.04043056680792353</v>
+        <v>0.009540750394917688</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.931980906921241</v>
+        <v>2.0</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2284617679944525</v>
+        <v>1.1850342695870417</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.4142375637252972</v>
+        <v>0.8223411645483849</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.41423756372529724</v>
+        <v>0.8223411645483848</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.41423756372529724</v>
+        <v>0.8223411645483848</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.1715927592010702</v>
+        <v>0.6762449909107935</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.41423756372529724</v>
+        <v>0.8223411645483848</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.41423756372529724</v>
+        <v>0.8223411645483848</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.41423756372529724</v>
+        <v>0.8223411645483848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.1715927592010702</v>
+        <v>0.6762449909107935</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.41423756372529724</v>
+        <v>0.8223411645483848</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.1715927592010702</v>
+        <v>0.6762449909107935</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.41423756372529724</v>
+        <v>0.8223411645483848</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>419.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8570945054184719</v>
+        <v>0.9564114999286365</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8409035508681412</v>
+        <v>0.954552556056602</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5412163721315014</v>
+        <v>0.8656171658011347</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.41423756372529735</v>
+        <v>0.8223411645483848</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.6587112171837708</v>
+        <v>2.035799522673031</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5297650506482616</v>
+        <v>1.2664827223568744</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>419.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8239225762038794</v>
+        <v>0.95265571661803</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8409035508681413</v>
+        <v>0.954552556056602</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5412163721315011</v>
+        <v>0.8656171658011347</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.41423756372529724</v>
+        <v>0.8223411645483848</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.2052505966587113</v>
+        <v>1.964200477326969</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3906286216552814</v>
+        <v>1.2163784658373733</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.37708830548926014</v>
+        <v>0.18138424821002386</v>
       </c>
       <c r="C23" t="n" s="684">
+        <v>0.1026252983293556</v>
+      </c>
+      <c r="D23" t="n" s="685">
+        <v>0.35083532219570407</v>
+      </c>
+      <c r="E23" t="n" s="686">
+        <v>0.22911694510739858</v>
+      </c>
+      <c r="F23" t="n" s="687">
         <v>0.1360381861575179</v>
-      </c>
-      <c r="D23" t="n" s="685">
-        <v>0.06682577565632458</v>
-      </c>
-      <c r="E23" t="n" s="686">
-        <v>0.2911694510739857</v>
-      </c>
-      <c r="F23" t="n" s="687">
-        <v>0.1288782816229117</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
+        <v>0.18615751789976134</v>
+      </c>
+      <c r="C24" t="n" s="684">
+        <v>0.0883054892601432</v>
+      </c>
+      <c r="D24" t="n" s="685">
+        <v>0.4105011933174224</v>
+      </c>
+      <c r="E24" t="n" s="686">
         <v>0.2052505966587112</v>
       </c>
-      <c r="C24" t="n" s="684">
-        <v>0.11694510739856802</v>
-      </c>
-      <c r="D24" t="n" s="685">
-        <v>0.0954653937947494</v>
-      </c>
-      <c r="E24" t="n" s="686">
-        <v>0.431980906921241</v>
-      </c>
       <c r="F24" t="n" s="687">
-        <v>0.15035799522673032</v>
+        <v>0.10978520286396182</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8220999872800856</v>
+        <v>0.8080682143672403</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8335346427556172</v>
+        <v>0.8283892691089133</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9031078853922783</v>
+        <v>0.9001121296705746</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3336556620050625</v>
+        <v>0.3255611645402942</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>5.007255903292413</v>
+        <v>4.8271414311186245</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.012985475003728817</v>
+        <v>0.012629002483710076</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.517183770883055</v>
+        <v>1.9143198090692124</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8615334565584081</v>
+        <v>0.7926608347287522</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.27699743700083646</v>
+        <v>0.28425647992119196</v>
       </c>
     </row>
     <row r="7">
@@ -7421,202 +7592,202 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.8019096101940859</v>
+        <v>0.7931258047239163</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.8082793629686982</v>
+        <v>0.8021369461712805</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8827528376974051</v>
+        <v>0.8761059980626792</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.3190032746779992</v>
+        <v>0.3105561849904397</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>4.215922581337616</v>
+        <v>4.054000636549622</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.01437567767359862</v>
+        <v>0.014069453078534584</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.035754356658135464</v>
+        <v>0.038473192130998674</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.2509121006525912</v>
+        <v>0.2810865159736097</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.8054293838767971</v>
+        <v>0.7677351829806752</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8130767335456337</v>
+        <v>0.8001135657440581</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8845001946496398</v>
+        <v>0.8748853488583842</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3258320318599033</v>
+        <v>0.30784355754053194</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.349788814246568</v>
+        <v>4.002840756664677</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.014016023160948986</v>
+        <v>0.015602639933766557</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03381157535045929</v>
+        <v>0.03861662473715736</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.27197792789578</v>
+        <v>0.2810865159736097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.8069566384219776</v>
+        <v>0.7651597354839814</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8133185611711249</v>
+        <v>0.7973712482078872</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8834932254442048</v>
+        <v>0.8732750856052911</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.3261818237505265</v>
+        <v>0.30422057124348323</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>4.356718944708094</v>
+        <v>3.9351337910127953</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.014051480247415649</v>
+        <v>0.015955629010640862</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.033681432573509126</v>
+        <v>0.038725610123459105</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.2810865159736097</v>
+        <v>0.28062695846101426</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.8132572277033677</v>
+        <v>0.8155117313262285</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8219828842979644</v>
+        <v>0.8367891479110681</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8872526223332037</v>
+        <v>0.9033227565318673</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.33908269603582425</v>
+        <v>0.3629240284699897</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>4.617437379862934</v>
+        <v>5.127043558691247</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.013509505558583596</v>
+        <v>0.012838162191075895</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03158096976844744</v>
+        <v>0.047019249922678336</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2810865159736097</v>
+        <v>0.3101871314677225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.8016059773130462</v>
+        <v>0.792018755413503</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8148884632161164</v>
+        <v>0.8083253432626545</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8756675894457012</v>
+        <v>0.8842727909111205</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.32846587701444147</v>
+        <v>0.3190677427389981</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.402148441820204</v>
+        <v>4.217173814325985</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.014499900652547816</v>
+        <v>0.013421882901741813</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.03573828370198859</v>
+        <v>0.058739151019591734</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.26180249315762916</v>
+        <v>0.29568935966227317</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.8040917691363856</v>
+        <v>0.7994709953249649</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8177306165187914</v>
+        <v>0.8151997496131408</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.878221121400574</v>
+        <v>0.8879589615994656</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.33266030577725975</v>
+        <v>0.3289215182182594</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.486384936958417</v>
+        <v>4.411248079516176</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.014359425843434628</v>
+        <v>0.012831686589240228</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.03541991386631863</v>
+        <v>0.056769174083370864</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.2664465375037055</v>
+        <v>0.30351799329003903</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7978945437815523</v>
+        <v>0.7929833788035673</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8184976126817656</v>
+        <v>0.818515229787516</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8652869547851063</v>
+        <v>0.8999456539680282</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3338055617785197</v>
+        <v>0.3338319344628629</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.509569404432489</v>
+        <v>4.510104229843593</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.01502435664234466</v>
+        <v>0.013520466792060112</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.030641895738406998</v>
+        <v>0.061419130977290994</v>
       </c>
       <c r="I17" t="n" s="753">
         <v>0.277456994513432</v>
@@ -7624,89 +7795,89 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7963449773376388</v>
+        <v>0.8053956348639839</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8158524013681838</v>
+        <v>0.8295348319407339</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8631772239817431</v>
+        <v>0.9051465506099168</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.32987980699950203</v>
+        <v>0.35094442662626346</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.430426502598038</v>
+        <v>4.86630108300088</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.015217969643046813</v>
+        <v>0.01255119246749989</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03103765456675904</v>
+        <v>0.0585997286933673</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.27197792789578</v>
+        <v>0.31719411592842606</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8126212208257052</v>
+        <v>0.7814071065429072</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8272094696301135</v>
+        <v>0.8064547787881027</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9039970768347353</v>
+        <v>0.8708587115372388</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3472279107577036</v>
+        <v>0.31646008364211425</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.7873541904138825</v>
+        <v>4.1667511795870125</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.013885714196193805</v>
+        <v>0.014080042484476711</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04032234904671745</v>
+        <v>0.0562007347993937</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.27197792789578</v>
+        <v>0.2664465375037055</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.8187706289006705</v>
+        <v>0.7844134600989825</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8316751850842469</v>
+        <v>0.8095852858997471</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9077249089418337</v>
+        <v>0.8733759896738202</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3544173313989456</v>
+        <v>0.3208415974699997</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.94089469517909</v>
+        <v>4.251694989671345</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.013335700405580896</v>
+        <v>0.013946500325753463</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.040389224571441576</v>
+        <v>0.055934556991032246</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.3035179932900391</v>
+        <v>0.27197792789578007</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>419.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6590169188639967</v>
+        <v>0.7567271540725288</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7160574550590377</v>
+        <v>0.7130677246618469</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6890510092694198</v>
+        <v>0.7361948130056314</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5804065675460333</v>
+        <v>0.729023150534562</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.4343675417661097</v>
+        <v>0.3556085918854415</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0591875411677554</v>
+        <v>0.4792695793462886</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>419.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6174593703905751</v>
+        <v>0.7830247516416365</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6772015751055306</v>
+        <v>0.7286450750410791</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6480445884337324</v>
+        <v>0.7538321606793416</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5199092235887615</v>
+        <v>0.6653623532204431</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.9140811455847255</v>
+        <v>1.2625298329355608</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.1949924638318656</v>
+        <v>1.8124514303851003</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>419.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.610213064384652</v>
+        <v>0.8038997992741248</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6752112463606775</v>
+        <v>0.7494501903805283</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6476809386734205</v>
+        <v>0.7765119832499917</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5317692569225992</v>
+        <v>0.6865459280762013</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.4749403341288785</v>
+        <v>1.3389021479713603</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.9714671899843844</v>
+        <v>1.9205984258476785</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>419.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5426107038553832</v>
+        <v>0.2593851643086436</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.601804807756972</v>
+        <v>0.41234369913689</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.5664400585046724</v>
+        <v>0.3282670803475818</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.4311052748554582</v>
+        <v>0.24040350446361514</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.883054892601432</v>
+        <v>0.9737470167064439</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2171714894700076</v>
+        <v>0.1600778607186979</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>419.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6528189577932748</v>
+        <v>0.5864023873176613</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6622148991387735</v>
+        <v>0.6641898305275551</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6464659882028124</v>
+        <v>0.6241775684228873</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5553129037737324</v>
+        <v>0.4879198142319976</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.035799522673031</v>
+        <v>3.4343675417661097</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2664827223568744</v>
+        <v>1.0591875411677554</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>419.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6302063895835438</v>
+        <v>0.5263821982880938</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6383484449451042</v>
+        <v>0.6076042079040122</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.619154499707343</v>
+        <v>0.5607593046780328</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5329357317485599</v>
+        <v>0.404104525868534</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.964200477326969</v>
+        <v>3.9140811455847255</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2163784658373733</v>
+        <v>1.1949924638318656</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>419.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.717494251502048</v>
+        <v>0.6199886458847516</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.6318318961038428</v>
+        <v>0.5794059846822184</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.6472548971133837</v>
+        <v>0.4901950173869465</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.58857159385526</v>
+        <v>0.47801329383401336</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>1.2625298329355608</v>
+        <v>1.6587112171837708</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.8124514303851003</v>
+        <v>1.5297650506482616</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>419.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.738901948428135</v>
+        <v>0.5103925149233913</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.6541695854310663</v>
+        <v>0.48113694803281554</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.6713211535804265</v>
+        <v>0.3766925681649171</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.6079743861311154</v>
+        <v>0.3629476566391632</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>1.3389021479713603</v>
+        <v>2.2052505966587113</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.9205984258476785</v>
+        <v>1.3906286216552814</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>419.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5865982717780446</v>
+        <v>0.6762803912350437</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5554582358994209</v>
+        <v>0.6791643967633766</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.46573488109918365</v>
+        <v>0.6647404322805712</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.45082167615457003</v>
+        <v>0.5740986835444745</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.6587112171837708</v>
+        <v>2.035799522673031</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5297650506482616</v>
+        <v>1.2664827223568744</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>419.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5148262822200808</v>
+        <v>0.6530973104485559</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5145501675745386</v>
+        <v>0.6540034126810452</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.41138175220699563</v>
+        <v>0.6363060200069461</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.38112733454878855</v>
+        <v>0.5507204130776233</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.2052505966587113</v>
+        <v>1.964200477326969</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3906286216552814</v>
+        <v>1.2163784658373733</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.026252983293556086</v>
+        <v>0.6443914081145584</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.06443914081145585</v>
+        <v>0.3556085918854415</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.002386634844868735</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.3460620525059666</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.477326968973747</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.08353221957040573</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.026252983293556086</v>
+        <v>0.6443914081145584</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.00954653937947494</v>
+        <v>0.031026252983293555</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.050119331742243436</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.28878281622911695</v>
+        <v>0.11694510739856802</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.18854415274463007</v>
+        <v>0.15035799522673032</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.43675417661097854</v>
+        <v>0.05489260143198091</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.00954653937947494</v>
+        <v>0.6443914081145584</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.06443914081145585</v>
+        <v>0.016706443914081145</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.00954653937947494</v>
+        <v>0.016706443914081145</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.360381861575179</v>
+        <v>0.11694510739856802</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.4701670644391408</v>
+        <v>0.0883054892601432</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.08591885441527446</v>
+        <v>0.11694510739856802</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.00954653937947494</v>
+        <v>0.026252983293556086</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.03341288782816229</v>
+        <v>0.9737470167064439</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.05250596658711217</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.35083532219570407</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.07637231503579953</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.477326968973747</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.18138424821002386</v>
+        <v>0.026252983293556086</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.1026252983293556</v>
+        <v>0.06443914081145585</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.35083532219570407</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.22911694510739858</v>
+        <v>0.3460620525059666</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.1360381861575179</v>
+        <v>0.477326968973747</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.08353221957040573</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.18615751789976134</v>
+        <v>0.026252983293556086</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.0883054892601432</v>
+        <v>0.00954653937947494</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.4105011933174224</v>
+        <v>0.050119331742243436</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.2052505966587112</v>
+        <v>0.28878281622911695</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.10978520286396182</v>
+        <v>0.18854415274463007</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.43675417661097854</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.6443914081145584</v>
+        <v>0.37708830548926014</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.031026252983293555</v>
+        <v>0.1360381861575179</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.002386634844868735</v>
+        <v>0.06682577565632458</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.11694510739856802</v>
+        <v>0.2911694510739857</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.15035799522673032</v>
+        <v>0.1288782816229117</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.05489260143198091</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.6443914081145584</v>
+        <v>0.2052505966587112</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.016706443914081145</v>
+        <v>0.11694510739856802</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.016706443914081145</v>
+        <v>0.0954653937947494</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.11694510739856802</v>
+        <v>0.431980906921241</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.0883054892601432</v>
+        <v>0.15035799522673032</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.11694510739856802</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.37708830548926014</v>
+        <v>0.18138424821002386</v>
       </c>
       <c r="C47" t="n" s="798">
+        <v>0.1026252983293556</v>
+      </c>
+      <c r="D47" t="n" s="799">
+        <v>0.35083532219570407</v>
+      </c>
+      <c r="E47" t="n" s="800">
+        <v>0.22911694510739858</v>
+      </c>
+      <c r="F47" t="n" s="801">
         <v>0.1360381861575179</v>
-      </c>
-      <c r="D47" t="n" s="799">
-        <v>0.06682577565632458</v>
-      </c>
-      <c r="E47" t="n" s="800">
-        <v>0.2911694510739857</v>
-      </c>
-      <c r="F47" t="n" s="801">
-        <v>0.1288782816229117</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
+        <v>0.18615751789976134</v>
+      </c>
+      <c r="C48" t="n" s="798">
+        <v>0.0883054892601432</v>
+      </c>
+      <c r="D48" t="n" s="799">
+        <v>0.4105011933174224</v>
+      </c>
+      <c r="E48" t="n" s="800">
         <v>0.2052505966587112</v>
       </c>
-      <c r="C48" t="n" s="798">
-        <v>0.11694510739856802</v>
-      </c>
-      <c r="D48" t="n" s="799">
-        <v>0.0954653937947494</v>
-      </c>
-      <c r="E48" t="n" s="800">
-        <v>0.431980906921241</v>
-      </c>
       <c r="F48" t="n" s="801">
-        <v>0.15035799522673032</v>
+        <v>0.10978520286396182</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
